--- a/ClinDoc_TestCases.xlsx
+++ b/ClinDoc_TestCases.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D885319\Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981960A2-6277-46CE-97B7-23E10F8C2CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B10D84-95FA-4963-B5C2-43B824E1651D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C233584-C6AC-480F-B9BF-415A359C6194}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8C233584-C6AC-480F-B9BF-415A359C6194}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ClicnDOc" sheetId="1" r:id="rId1"/>
+    <sheet name="ClinDoc_detailed" sheetId="2" r:id="rId2"/>
+    <sheet name="Maa-Hindi" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="112">
   <si>
     <t>Test Cases</t>
   </si>
@@ -130,13 +132,256 @@
   </si>
   <si>
     <t>if default value is set for observation, it should be displayed when user open doc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eYhyDzseMH4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xNlVQRYk-DI</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case </t>
+  </si>
+  <si>
+    <t>Pre-requisites</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Step No.</t>
+  </si>
+  <si>
+    <t>Test Step</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>Clinical Documentation</t>
+  </si>
+  <si>
+    <t>Verify details on SCM/Acute Care</t>
+  </si>
+  <si>
+    <t>Browser should be installed
+Internet connection should be present</t>
+  </si>
+  <si>
+    <t>Verify that dashboard is displayed after login or not.</t>
+  </si>
+  <si>
+    <t>UserName - userName Password- password</t>
+  </si>
+  <si>
+    <t>Open browser</t>
+  </si>
+  <si>
+    <t>Open url</t>
+  </si>
+  <si>
+    <t>Enter userName and password</t>
+  </si>
+  <si>
+    <t>Click on Login button</t>
+  </si>
+  <si>
+    <t>Browser should be opened</t>
+  </si>
+  <si>
+    <t>Ecommerce website should be opened</t>
+  </si>
+  <si>
+    <t>user should be able to input username and password</t>
+  </si>
+  <si>
+    <t>Home page should be displayed after login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Browser should be installed
+Internet connection should be present
+User should be logged in </t>
+  </si>
+  <si>
+    <t>Enter username and password</t>
+  </si>
+  <si>
+    <t>Click on login button</t>
+  </si>
+  <si>
+    <t>Home page should be displayed after login and user name should be displayed on home page</t>
+  </si>
+  <si>
+    <t>Verify that featured products are displayed on home page</t>
+  </si>
+  <si>
+    <t>Verify that name of attending care provider is displayed on home page(at bottom) or not</t>
+  </si>
+  <si>
+    <t>Home page should be displayed after login and attending CP should be displayed on home page(at bottom)</t>
+  </si>
+  <si>
+    <t>Verify that Search Patient is present on home page.</t>
+  </si>
+  <si>
+    <t>User should be logged in and Search patient is present on home page.</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>Verify the details on Home page</t>
+  </si>
+  <si>
+    <t>Verify the home page of application on different browsers.</t>
+  </si>
+  <si>
+    <t>User should be logged in and home page should be same on different browsers.</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>Verify the alignment on the home page</t>
+  </si>
+  <si>
+    <t>User should be logged in and alignment of products on home page should be proper.</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>Verify that products displayed on home page are clickable.</t>
+  </si>
+  <si>
+    <t>Click on any product displayed on home page</t>
+  </si>
+  <si>
+    <t>User should be redirected to product specification page.</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>Verify that when user clicks on a product, user should be redirected to product specification page.</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>Verify that user profile section is present on home page.</t>
+  </si>
+  <si>
+    <t>Click on user name displayed on home page.</t>
+  </si>
+  <si>
+    <t>User profile should be displayed.</t>
+  </si>
+  <si>
+    <t>TC0010</t>
+  </si>
+  <si>
+    <t>Verify that products are disabled when no patient is selected</t>
+  </si>
+  <si>
+    <t>Used should be logged in and home page should be displayed, products should be disabled if no patient is selected</t>
+  </si>
+  <si>
+    <t>TC0011</t>
+  </si>
+  <si>
+    <t>Documents tab</t>
+  </si>
+  <si>
+    <t>Verify documents tab is clickable</t>
+  </si>
+  <si>
+    <t>Verify Logo is properly displayed</t>
+  </si>
+  <si>
+    <t>Verify that logo is changed when theme is changed</t>
+  </si>
+  <si>
+    <t>Verify Forgot password link is clickable</t>
+  </si>
+  <si>
+    <t>Verify that trending video is displayed after login in</t>
+  </si>
+  <si>
+    <t>Verify thet all tabs are displayed after login or not</t>
+  </si>
+  <si>
+    <t>Verify that video is clickable</t>
+  </si>
+  <si>
+    <t>Verify that when click on video it should open on new tab</t>
+  </si>
+  <si>
+    <t>Verify that all parameters of video are displayed</t>
+  </si>
+  <si>
+    <t>verify that when clicked on like button it should increase count by 1</t>
+  </si>
+  <si>
+    <t>verify that when clicked on dislike button it should decrease count by 1</t>
+  </si>
+  <si>
+    <t>Verify that user is able to subscribe to channel</t>
+  </si>
+  <si>
+    <t>Verify that user is able to view comments</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add comments</t>
+  </si>
+  <si>
+    <t>Verify that user is able to view uploaded pictures under images tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that user is able to view uploaded videos under videos tab</t>
+  </si>
+  <si>
+    <t>Verify that images and videos tabs are displayed under My Gallery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,16 +389,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -161,12 +425,181 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE85661-B690-4224-A3CD-C811333786FF}">
-  <dimension ref="A5:J29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,6 +927,16 @@
     <col min="7" max="7" width="31.77734375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>0</v>
@@ -690,6 +1133,1180 @@
       </c>
       <c r="E29" t="s">
         <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBDD031-E20C-481C-981E-99CD55A5AB24}">
+  <dimension ref="A1:M48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="32.44140625" customWidth="1"/>
+    <col min="9" max="9" width="51.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="15">
+        <v>1</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="6">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="6">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="6">
+        <v>4</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="7">
+        <v>2</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="7">
+        <v>3</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="7">
+        <v>4</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="6">
+        <v>2</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="6">
+        <v>3</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="6">
+        <v>4</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="7">
+        <v>2</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="7">
+        <v>3</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="7">
+        <v>4</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="6">
+        <v>2</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="6">
+        <v>3</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="6">
+        <v>4</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="6">
+        <v>5</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="7">
+        <v>2</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="7">
+        <v>3</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="7">
+        <v>4</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="7">
+        <v>5</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="6">
+        <v>2</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="6">
+        <v>3</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="6">
+        <v>4</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="6">
+        <v>5</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="7">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="7">
+        <v>2</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="7">
+        <v>3</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="7">
+        <v>4</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="63">
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB19187-5227-4090-BA31-5095DC7EEAFF}">
+  <dimension ref="D4:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="55.88671875" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D15" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D16" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="30" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/ClinDoc_TestCases.xlsx
+++ b/ClinDoc_TestCases.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D885319\Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B10D84-95FA-4963-B5C2-43B824E1651D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EE5D27-7DAE-4EEE-8C95-E32D7CF290ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8C233584-C6AC-480F-B9BF-415A359C6194}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{8C233584-C6AC-480F-B9BF-415A359C6194}"/>
   </bookViews>
   <sheets>
     <sheet name="ClicnDOc" sheetId="1" r:id="rId1"/>
     <sheet name="ClinDoc_detailed" sheetId="2" r:id="rId2"/>
     <sheet name="Maa-Hindi" sheetId="3" r:id="rId3"/>
+    <sheet name="DB test cases" sheetId="4" r:id="rId4"/>
+    <sheet name="SP Test case" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="124">
   <si>
     <t>Test Cases</t>
   </si>
@@ -375,13 +377,49 @@
   </si>
   <si>
     <t>Verify that images and videos tabs are displayed under My Gallery</t>
+  </si>
+  <si>
+    <t>automate btn should not be clickable/enabled if mandatory fields are not charted</t>
+  </si>
+  <si>
+    <t>how to automate mandatory fields</t>
+  </si>
+  <si>
+    <t>https://www.guru99.com/complete-web-application-testing-checklist.html</t>
+  </si>
+  <si>
+    <t>https://www.softwaretestinghelp.com/login-page-test-cases/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC ID </t>
+  </si>
+  <si>
+    <t>Title/Description</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Check table presence in DB schema</t>
+  </si>
+  <si>
+    <t>Check table name conventions</t>
+  </si>
+  <si>
+    <t>Show tables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,8 +434,29 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +472,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,101 +572,108 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -615,6 +687,171 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA247A6-F129-4CD0-A7BA-4E80BEF817D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1661160" y="891540"/>
+          <a:ext cx="9220200" cy="4632960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Graphical user interface, application, table, Excel&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F81FA5-9D29-4AFD-BF3F-6BA9E428FC7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="182880"/>
+          <a:ext cx="8915400" cy="5638800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE4350F-5DD3-4F73-A4C8-DEF89BAC0E3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="182880"/>
+          <a:ext cx="9159240" cy="5699760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -914,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE85661-B690-4224-A3CD-C811333786FF}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:G5"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,7 +1372,30 @@
         <v>31</v>
       </c>
     </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E46" r:id="rId1" xr:uid="{2A151D2F-7B13-44A8-B10A-4247D2928B9E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1144,7 +1404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBDD031-E20C-481C-981E-99CD55A5AB24}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
@@ -1165,971 +1425,1019 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="5"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="5">
+      <c r="A3" s="26"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="4">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="5">
+      <c r="A4" s="26"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="4">
         <v>3</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="5">
+      <c r="A5" s="26"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="4">
         <v>4</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7">
+      <c r="F6" s="28"/>
+      <c r="G6" s="6">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7">
+      <c r="A7" s="28"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="6">
         <v>2</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7">
+      <c r="A8" s="28"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="6">
         <v>3</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7">
+      <c r="A9" s="28"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="6">
         <v>4</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="6">
+      <c r="F10" s="26"/>
+      <c r="G10" s="5">
         <v>1</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="6">
+      <c r="A11" s="26"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="5">
         <v>2</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="6">
+      <c r="A12" s="26"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="5">
         <v>3</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="6">
+      <c r="A13" s="26"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="5">
         <v>4</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="7">
+      <c r="F14" s="20"/>
+      <c r="G14" s="6">
         <v>1</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="17"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="7">
+      <c r="A15" s="28"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="6">
         <v>2</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="7">
+      <c r="A16" s="28"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="6">
         <v>3</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="7">
+      <c r="A17" s="28"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="6">
         <v>4</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="6">
+      <c r="F18" s="17"/>
+      <c r="G18" s="5">
         <v>1</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="6">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="5">
         <v>2</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="6">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="5">
         <v>3</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="6">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="5">
         <v>4</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="7">
+      <c r="F22" s="20"/>
+      <c r="G22" s="6">
         <v>1</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="7">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="6">
         <v>2</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="7">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="6">
         <v>3</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="7">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="6">
         <v>4</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="6">
+      <c r="F26" s="17"/>
+      <c r="G26" s="5">
         <v>1</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="6">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="5">
         <v>2</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="6">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="5">
         <v>3</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="6">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="5">
         <v>4</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="6">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="5">
         <v>5</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="7">
+      <c r="F31" s="20"/>
+      <c r="G31" s="6">
         <v>1</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="7">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="6">
         <v>2</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="7">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="6">
         <v>3</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="7">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="6">
         <v>4</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="7">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="6">
         <v>5</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="6">
+      <c r="F36" s="17"/>
+      <c r="G36" s="5">
         <v>1</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="6">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="5">
         <v>2</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="6">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="5">
         <v>3</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="6">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="5">
         <v>4</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="6">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="5">
         <v>5</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="7">
+      <c r="F41" s="20"/>
+      <c r="G41" s="6">
         <v>1</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="7">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="6">
         <v>2</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="7">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="6">
         <v>3</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="7">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="6">
         <v>4</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
     <mergeCell ref="C45:C48"/>
     <mergeCell ref="F36:F40"/>
     <mergeCell ref="A41:A44"/>
@@ -2145,54 +2453,6 @@
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="D36:D40"/>
     <mergeCell ref="E36:E40"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2202,7 +2462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB19187-5227-4090-BA31-5095DC7EEAFF}">
   <dimension ref="D4:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -2214,13 +2474,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2235,81 +2495,197 @@
       </c>
     </row>
     <row r="8" spans="4:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="4:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" spans="4:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="11" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="11" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3878EF2C-1837-4956-8247-CFEADB14B916}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DBD5F5-D377-41D0-B43D-8F251B5FDC1C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ClinDoc_TestCases.xlsx
+++ b/ClinDoc_TestCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D885319\Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EE5D27-7DAE-4EEE-8C95-E32D7CF290ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B584AED1-098D-405F-B35D-69C26B862BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{8C233584-C6AC-480F-B9BF-415A359C6194}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8C233584-C6AC-480F-B9BF-415A359C6194}"/>
   </bookViews>
   <sheets>
     <sheet name="ClicnDOc" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Maa-Hindi" sheetId="3" r:id="rId3"/>
     <sheet name="DB test cases" sheetId="4" r:id="rId4"/>
     <sheet name="SP Test case" sheetId="5" r:id="rId5"/>
+    <sheet name="API test case" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="226">
   <si>
     <t>Test Cases</t>
   </si>
@@ -413,13 +414,3662 @@
   </si>
   <si>
     <t>Show tables</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/users?page=1</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/users</t>
+  </si>
+  <si>
+    <t>success response</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Sherry"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Job"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Client"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"388"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"createdAt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2021-11-02T10:47:18.094Z"</t>
+    </r>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Sherry"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Job"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Client"</t>
+    </r>
+  </si>
+  <si>
+    <t>HTTP Method type</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Status code</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF800555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF336633"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF642880"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>parse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>responseBody</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tests</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"validate name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF800555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF336633"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF800555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Sherry"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tests</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"validate job"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF800555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Job</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF800555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Client"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tests</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"validate status code"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF800555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>responseCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF336633"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF800555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF00AA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>https://reqres.in/api/login</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"email"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"sherrybuse@gmail.com"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"busesherry"</t>
+    </r>
+  </si>
+  <si>
+    <t>Body -&gt; json</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"email"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"eve.holt@reqres.in"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"cityslicka"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"error"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"user not found"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"token"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"QpwL5tke4Pnpja7X4"</t>
+    </r>
+  </si>
+  <si>
+    <t>pass credentials</t>
+  </si>
+  <si>
+    <r>
+      <t>tests</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Validate token is present/not"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF800555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>responseBody</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF642880"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"token"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>if credentials are right then only token is generated</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"email"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"eve.holt@reqres.in"</t>
+    </r>
+  </si>
+  <si>
+    <t>    </t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"error"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Missing password"</t>
+    </r>
+  </si>
+  <si>
+    <t>negative scenario</t>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF800555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF336633"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF642880"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>parse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>responseBody</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);                </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tests</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Validate employee name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF800555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF336633"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF00AA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>employee_name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF800555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Garrett Winters"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> ;               </t>
+    </r>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>http://dummy.restapiexample.com/api/v1/employees</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"status"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"success"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"data"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+  </si>
+  <si>
+    <t>        {</t>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"employee_name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Tiger Nixon"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"employee_salary"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>320800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"employee_age"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>61</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"profile_image"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+  </si>
+  <si>
+    <t>        },</t>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"employee_name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Garrett Winters"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"employee_salary"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>170750</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"employee_age"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>http://dummy.restapiexample.com/api/v1/employee/5</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"data"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"employee_name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Airi Satou"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"employee_salary"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>162700</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"employee_age"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"profile_image"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+  </si>
+  <si>
+    <t>    },</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Successfully! Record has been fetched."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"David"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"salary"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"age"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"23"</t>
+    </r>
+  </si>
+  <si>
+    <t>http://dummy.restapiexample.com/api/v1/create</t>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"David"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"salary"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"age"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"23"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5147</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Successfully! Record has been added."</t>
+    </r>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"employee_name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Jena Gaines"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"employee_salary"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>90560</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"employee_age"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>http://dummy.restapiexample.com/api/v1/update/11</t>
+  </si>
+  <si>
+    <t>actual data</t>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Jena Gaines"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"salary"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"1000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"age"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"30"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Successfully! Record has been updated."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Jena Gaines"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"salary"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"12345"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"age"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"30"</t>
+    </r>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"data"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"11"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Successfully! Record has been deleted"</t>
+    </r>
+  </si>
+  <si>
+    <t>http://dummy.restapiexample.com/api/v1/delete/11</t>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"John"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"salary"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"62542"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"age"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"35"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>652</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"John"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"salary"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"62542"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"age"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"35"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tests</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"validate status"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF800555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>responseCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF336633"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF800555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF00AA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tests</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"validate status message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF800555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>responseBody</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF642880"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"success"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tests</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"validate status in respone Body"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF800555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF336633"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF800555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"success"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF642880"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"validate content-type header"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF800555"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <r>
+      <t>     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF001188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.header(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Content-Type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"application/json"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,8 +4105,106 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF0451A5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF800555"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF001188"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF800555"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF336633"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF642880"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF00AA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA31515"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0451A5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF098658"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +4229,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -576,7 +4330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -613,6 +4367,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -843,6 +4613,122 @@
         <a:xfrm>
           <a:off x="9753600" y="182880"/>
           <a:ext cx="9159240" cy="5699760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>392927</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253AFF81-3B22-403D-A993-0C226EE4496B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="914400"/>
+          <a:ext cx="9311640" cy="5326380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>119269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>145347</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>119639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D87F80-9308-4E3D-8869-BBDBE93951C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9727096" y="1789043"/>
+          <a:ext cx="6546147" cy="4267570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1466,22 +5352,22 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="36" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="7">
@@ -1499,12 +5385,12 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="4">
         <v>2</v>
       </c>
@@ -1520,12 +5406,12 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="31"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="4">
         <v>3</v>
       </c>
@@ -1541,12 +5427,12 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="31"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="4">
         <v>4</v>
       </c>
@@ -1562,22 +5448,22 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="6">
         <v>1</v>
       </c>
@@ -1593,12 +5479,12 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="28"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="6">
         <v>2</v>
       </c>
@@ -1614,12 +5500,12 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="28"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="6">
         <v>3</v>
       </c>
@@ -1635,12 +5521,12 @@
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="28"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="6">
         <v>4</v>
       </c>
@@ -1656,22 +5542,22 @@
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="5">
         <v>1</v>
       </c>
@@ -1687,12 +5573,12 @@
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="26"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="5">
         <v>2</v>
       </c>
@@ -1708,12 +5594,12 @@
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="26"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="5">
         <v>3</v>
       </c>
@@ -1729,12 +5615,12 @@
       <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="5">
         <v>4</v>
       </c>
@@ -1750,22 +5636,22 @@
       <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="6">
         <v>1</v>
       </c>
@@ -1781,12 +5667,12 @@
       <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="21"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="6">
         <v>2</v>
       </c>
@@ -1802,12 +5688,12 @@
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="21"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="6">
         <v>3</v>
       </c>
@@ -1823,12 +5709,12 @@
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="22"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="6">
         <v>4</v>
       </c>
@@ -1844,22 +5730,22 @@
       <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="5">
         <v>1</v>
       </c>
@@ -1871,12 +5757,12 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="5">
         <v>2</v>
       </c>
@@ -1888,12 +5774,12 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="5">
         <v>3</v>
       </c>
@@ -1905,12 +5791,12 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="5">
         <v>4</v>
       </c>
@@ -1922,22 +5808,22 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="6">
         <v>1</v>
       </c>
@@ -1949,12 +5835,12 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="21"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="6">
         <v>2</v>
       </c>
@@ -1966,12 +5852,12 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="21"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="6">
         <v>3</v>
       </c>
@@ -1983,12 +5869,12 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="22"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="6">
         <v>4</v>
       </c>
@@ -2000,22 +5886,22 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="17"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="5">
         <v>1</v>
       </c>
@@ -2027,12 +5913,12 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="5">
         <v>2</v>
       </c>
@@ -2044,12 +5930,12 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="5">
         <v>3</v>
       </c>
@@ -2061,12 +5947,12 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="5">
         <v>4</v>
       </c>
@@ -2078,12 +5964,12 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="25"/>
       <c r="G30" s="5">
         <v>5</v>
       </c>
@@ -2095,22 +5981,22 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="6">
         <v>1</v>
       </c>
@@ -2122,12 +6008,12 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="21"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="6">
         <v>2</v>
       </c>
@@ -2139,12 +6025,12 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="21"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="6">
         <v>3</v>
       </c>
@@ -2156,12 +6042,12 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="21"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="6">
         <v>4</v>
       </c>
@@ -2173,12 +6059,12 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="22"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="28"/>
       <c r="G35" s="6">
         <v>5</v>
       </c>
@@ -2190,22 +6076,22 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="5">
         <v>1</v>
       </c>
@@ -2217,12 +6103,12 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="24"/>
       <c r="G37" s="5">
         <v>2</v>
       </c>
@@ -2234,12 +6120,12 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="24"/>
       <c r="G38" s="5">
         <v>3</v>
       </c>
@@ -2251,12 +6137,12 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="24"/>
       <c r="G39" s="5">
         <v>4</v>
       </c>
@@ -2268,12 +6154,12 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="19"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="25"/>
       <c r="G40" s="5">
         <v>5</v>
       </c>
@@ -2285,22 +6171,22 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="20"/>
+      <c r="F41" s="26"/>
       <c r="G41" s="6">
         <v>1</v>
       </c>
@@ -2312,12 +6198,12 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="21"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="6">
         <v>2</v>
       </c>
@@ -2329,12 +6215,12 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="21"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="27"/>
       <c r="G43" s="6">
         <v>3</v>
       </c>
@@ -2346,12 +6232,12 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="22"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="6">
         <v>4</v>
       </c>
@@ -2363,30 +6249,30 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="63">
@@ -2679,7 +6565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DBD5F5-D377-41D0-B43D-8F251B5FDC1C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -2688,4 +6574,783 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69C92F7-FABA-48A4-A3D6-51FC3793AC3A}">
+  <dimension ref="A15:U145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N146" sqref="N146"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="12" max="12" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>139</v>
+      </c>
+      <c r="L37" t="s">
+        <v>126</v>
+      </c>
+      <c r="O37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I39">
+        <v>200</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O39" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G40" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O40" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G41" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O41" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G42" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O42" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L43" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L44" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47">
+        <v>400</v>
+      </c>
+      <c r="L47" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G48" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L48" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="G49" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="G51" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L51" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O51" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="U51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="G52" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="I52">
+        <v>200</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="G53" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="G54" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="G56" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I56">
+        <v>400</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>159</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="G58" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="G59" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I62">
+        <v>200</v>
+      </c>
+      <c r="L62" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="L63" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="L64" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="L65" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="O65" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="L66" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="O66" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="L67" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="L68" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H69" s="15"/>
+      <c r="L69" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H70" s="15"/>
+      <c r="L70" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="L71" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="L72" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="L73" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="L74" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="L75" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="L76" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="L77" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="L78" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>162</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I81">
+        <v>200</v>
+      </c>
+      <c r="L81" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L82" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L83" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L84" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L85" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L86" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L87" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L88" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L89" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L90" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L91" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>137</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I95">
+        <v>200</v>
+      </c>
+      <c r="L95" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G96" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="L96" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G97" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="L97" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G98" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="L98" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G99" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L99" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L100" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L101" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L102" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="103" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L103" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L104" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>195</v>
+      </c>
+      <c r="G107" s="15"/>
+    </row>
+    <row r="108" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="F108" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I108">
+        <v>200</v>
+      </c>
+      <c r="L108" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G109" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L109" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="110" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G110" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="L110" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G111" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="L111" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G112" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L112" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="113" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G113" s="15"/>
+      <c r="L113" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G114" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="L114" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="115" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G115" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L115" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G116" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L116" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G117" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="118" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G118" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="119" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G119" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="120" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G120" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="121" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G121" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="122" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G122" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="123" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G123" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="124" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G124" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G125" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>209</v>
+      </c>
+      <c r="F129" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="I129">
+        <v>200</v>
+      </c>
+      <c r="L129" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="L130" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="L131" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="132" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="L132" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="133" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="L133" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>7</v>
+      </c>
+      <c r="D135" t="s">
+        <v>137</v>
+      </c>
+      <c r="F135" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G135" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I135">
+        <v>200</v>
+      </c>
+      <c r="L135" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="136" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="G136" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="L136" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O136" s="18"/>
+    </row>
+    <row r="137" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="G137" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="L137" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="O137" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="138" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="G138" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="L138" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="O138" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="139" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="G139" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L139" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="O139" s="20"/>
+    </row>
+    <row r="140" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="L140" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="O140" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="L141" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="O141" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="142" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="L142" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="L143" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="O143" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="144" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="L144" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O144" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="145" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O145" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A16" r:id="rId1" xr:uid="{F8C12505-7BF2-40D5-BE23-2D2AAE4D3B2B}"/>
+    <hyperlink ref="A15" r:id="rId2" xr:uid="{04C6D64B-BA75-4269-A131-50580849B391}"/>
+    <hyperlink ref="A18" r:id="rId3" xr:uid="{7F01079F-D366-4402-82F0-13E6FAA42D13}"/>
+    <hyperlink ref="F62" r:id="rId4" display="https://dummy.restapiexample.com/api/v1/employees" xr:uid="{F3B1B8C9-D7F0-45DD-9889-CA3B2520D305}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+</worksheet>
 </file>